--- a/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.729194501193717</v>
+        <v>1.865345274680095</v>
       </c>
       <c r="C2">
-        <v>0.4687714431618701</v>
+        <v>0.1064454161360828</v>
       </c>
       <c r="D2">
-        <v>0.06374777785020669</v>
+        <v>0.0798451295203062</v>
       </c>
       <c r="E2">
-        <v>0.02399851952126042</v>
+        <v>0.04699610546238731</v>
       </c>
       <c r="F2">
-        <v>2.428589545802268</v>
+        <v>2.009122972597567</v>
       </c>
       <c r="G2">
-        <v>0.0008050243848917391</v>
+        <v>0.0008363598586300872</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.878750719907984</v>
+        <v>1.602788835596613</v>
       </c>
       <c r="L2">
-        <v>0.3344913190657337</v>
+        <v>0.2733962761121091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.436104954339839</v>
+        <v>2.125088679374898</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.24489825773702</v>
+        <v>1.641316148629755</v>
       </c>
       <c r="C3">
-        <v>0.404075030890624</v>
+        <v>0.09331858757910538</v>
       </c>
       <c r="D3">
-        <v>0.0651463456137833</v>
+        <v>0.0821398357733214</v>
       </c>
       <c r="E3">
-        <v>0.02335641897871366</v>
+        <v>0.04351570711505026</v>
       </c>
       <c r="F3">
-        <v>2.204699836324664</v>
+        <v>1.876333369859381</v>
       </c>
       <c r="G3">
-        <v>0.0008142954857124315</v>
+        <v>0.000843445896808294</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7603630415087252</v>
+        <v>1.397731903591733</v>
       </c>
       <c r="L3">
-        <v>0.2936849079388537</v>
+        <v>0.2417213087259142</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.452779627271141</v>
+        <v>2.121662903281575</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.953682142498508</v>
+        <v>1.506274738596034</v>
       </c>
       <c r="C4">
-        <v>0.3649556838210799</v>
+        <v>0.08532923791022995</v>
       </c>
       <c r="D4">
-        <v>0.06610959022759033</v>
+        <v>0.08356921116745042</v>
       </c>
       <c r="E4">
-        <v>0.02299459617091859</v>
+        <v>0.04144448076255891</v>
       </c>
       <c r="F4">
-        <v>2.072439138956184</v>
+        <v>1.797853197283047</v>
       </c>
       <c r="G4">
-        <v>0.0008201317766659968</v>
+        <v>0.0008479245258336007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6890800135564135</v>
+        <v>1.273907614455567</v>
       </c>
       <c r="L4">
-        <v>0.2692235219107175</v>
+        <v>0.2226641327520582</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.465185683215495</v>
+        <v>2.121638696598609</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.836358996860838</v>
+        <v>1.451810678933526</v>
       </c>
       <c r="C5">
-        <v>0.3491403520209246</v>
+        <v>0.08208740591838648</v>
       </c>
       <c r="D5">
-        <v>0.06652666035191501</v>
+        <v>0.08415689038181107</v>
       </c>
       <c r="E5">
-        <v>0.02285483030947866</v>
+        <v>0.04061577872829147</v>
       </c>
       <c r="F5">
-        <v>2.019717910014165</v>
+        <v>1.766580620047165</v>
       </c>
       <c r="G5">
-        <v>0.0008225482652884796</v>
+        <v>0.0008497827917087042</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6603380424700376</v>
+        <v>1.223911937006562</v>
       </c>
       <c r="L5">
-        <v>0.2593871640500254</v>
+        <v>0.2149867239031948</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.470751242147699</v>
+        <v>2.122124875408474</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.816953725224664</v>
+        <v>1.442799343154007</v>
       </c>
       <c r="C6">
-        <v>0.3465211335719971</v>
+        <v>0.08154983407536065</v>
       </c>
       <c r="D6">
-        <v>0.06659734917658611</v>
+        <v>0.08425478993823798</v>
       </c>
       <c r="E6">
-        <v>0.02283207301920509</v>
+        <v>0.04047906647824107</v>
       </c>
       <c r="F6">
-        <v>2.011030939106746</v>
+        <v>1.761428991452618</v>
       </c>
       <c r="G6">
-        <v>0.0008229518809443311</v>
+        <v>0.0008500933894806166</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6555826604476067</v>
+        <v>1.215636536323501</v>
       </c>
       <c r="L6">
-        <v>0.2577613258153093</v>
+        <v>0.2137169684070415</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.471705234818657</v>
+        <v>2.122234818134473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.952094661570925</v>
+        <v>1.505538007195099</v>
       </c>
       <c r="C7">
-        <v>0.3647419145631545</v>
+        <v>0.08528546606295606</v>
       </c>
       <c r="D7">
-        <v>0.06611511778929824</v>
+        <v>0.08357711568316795</v>
       </c>
       <c r="E7">
-        <v>0.02299268074231531</v>
+        <v>0.04143324400727444</v>
       </c>
       <c r="F7">
-        <v>2.07172352813825</v>
+        <v>1.797428649713567</v>
       </c>
       <c r="G7">
-        <v>0.0008201642092756632</v>
+        <v>0.0008479494513576726</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6886912081855101</v>
+        <v>1.273231553455133</v>
       </c>
       <c r="L7">
-        <v>0.2690903534685276</v>
+        <v>0.222560246560306</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.465258721433685</v>
+        <v>2.121643278909502</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.560810838697137</v>
+        <v>1.787537354748792</v>
       </c>
       <c r="C8">
-        <v>0.4463222818964425</v>
+        <v>0.1019022218921748</v>
       </c>
       <c r="D8">
-        <v>0.06420720396599933</v>
+        <v>0.08063214309973255</v>
       </c>
       <c r="E8">
-        <v>0.02377009347905279</v>
+        <v>0.04578167130013711</v>
       </c>
       <c r="F8">
-        <v>2.350227010918076</v>
+        <v>1.962666536995897</v>
       </c>
       <c r="G8">
-        <v>0.0008081924700490797</v>
+        <v>0.0008387772646260006</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8376085370341428</v>
+        <v>1.531615854610152</v>
       </c>
       <c r="L8">
-        <v>0.3202869652803884</v>
+        <v>0.2623873453690209</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.441382305939442</v>
+        <v>2.123459171108593</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.813114769292952</v>
+        <v>2.363719940771659</v>
       </c>
       <c r="C9">
-        <v>0.6124119128350287</v>
+        <v>0.1352389555873685</v>
       </c>
       <c r="D9">
-        <v>0.06138442277773137</v>
+        <v>0.07501645945081137</v>
       </c>
       <c r="E9">
-        <v>0.02557575603221984</v>
+        <v>0.05488941271216419</v>
       </c>
       <c r="F9">
-        <v>2.944444379493802</v>
+        <v>2.313831950128332</v>
       </c>
       <c r="G9">
-        <v>0.0007857568329684468</v>
+        <v>0.0008217526743267566</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.143205426449853</v>
+        <v>2.0577722782065</v>
       </c>
       <c r="L9">
-        <v>0.4262788013240737</v>
+        <v>0.3440805343368112</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.413530392760109</v>
+        <v>2.144836782664228</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.784547103323689</v>
+        <v>2.806153074698784</v>
       </c>
       <c r="C10">
-        <v>0.7402561787298509</v>
+        <v>0.1604854151481874</v>
       </c>
       <c r="D10">
-        <v>0.06001485004320983</v>
+        <v>0.07098478936223174</v>
       </c>
       <c r="E10">
-        <v>0.02711126357187332</v>
+        <v>0.06202467544066437</v>
       </c>
       <c r="F10">
-        <v>3.42100028226028</v>
+        <v>2.592837923269713</v>
       </c>
       <c r="G10">
-        <v>0.0007697505294414157</v>
+        <v>0.0008097524042298499</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.379811133843091</v>
+        <v>2.460742657301779</v>
       </c>
       <c r="L10">
-        <v>0.5089588473151139</v>
+        <v>0.407037768535929</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.407433373134324</v>
+        <v>2.173427140002417</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.241735351906812</v>
+        <v>3.012823725436647</v>
       </c>
       <c r="C11">
-        <v>0.800232908357458</v>
+        <v>0.1722092510287041</v>
       </c>
       <c r="D11">
-        <v>0.05958391166070953</v>
+        <v>0.0691707928562888</v>
       </c>
       <c r="E11">
-        <v>0.02786491202797947</v>
+        <v>0.06538944849986095</v>
       </c>
       <c r="F11">
-        <v>3.649286578855168</v>
+        <v>2.725444128745124</v>
       </c>
       <c r="G11">
-        <v>0.000762531472831329</v>
+        <v>0.000804383930169388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.491075186435964</v>
+        <v>2.648763245045188</v>
       </c>
       <c r="L11">
-        <v>0.5479821579780406</v>
+        <v>0.4365032816816381</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.408519118036168</v>
+        <v>2.189740305347982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.417459516059807</v>
+        <v>3.091978142303901</v>
       </c>
       <c r="C12">
-        <v>0.8232607783304502</v>
+        <v>0.1766902008052966</v>
       </c>
       <c r="D12">
-        <v>0.0594523175275441</v>
+        <v>0.06848677047050167</v>
       </c>
       <c r="E12">
-        <v>0.028159174938164</v>
+        <v>0.06668277933161804</v>
       </c>
       <c r="F12">
-        <v>3.737661555152215</v>
+        <v>2.776580856121114</v>
       </c>
       <c r="G12">
-        <v>0.0007598027770448321</v>
+        <v>0.0008023622457412778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.53382832408235</v>
+        <v>2.72074489789739</v>
       </c>
       <c r="L12">
-        <v>0.562998048196576</v>
+        <v>0.4477973013797225</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.409558477285088</v>
+        <v>2.196441325595259</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.379491664932402</v>
+        <v>3.074889144063945</v>
       </c>
       <c r="C13">
-        <v>0.8182863053883125</v>
+        <v>0.175723186940445</v>
       </c>
       <c r="D13">
-        <v>0.05947918297998456</v>
+        <v>0.068633957418891</v>
       </c>
       <c r="E13">
-        <v>0.02809538907733078</v>
+        <v>0.0664033498175165</v>
       </c>
       <c r="F13">
-        <v>3.718537864592662</v>
+        <v>2.765524874878821</v>
       </c>
       <c r="G13">
-        <v>0.0007603902970223547</v>
+        <v>0.0008027971820536508</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.524591387860781</v>
+        <v>2.70520576192672</v>
       </c>
       <c r="L13">
-        <v>0.5597528717112539</v>
+        <v>0.4453585847015376</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.409305405621978</v>
+        <v>2.194974032048322</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.256137735662833</v>
+        <v>3.019317209095675</v>
       </c>
       <c r="C14">
-        <v>0.8021207511465605</v>
+        <v>0.1725770289235271</v>
       </c>
       <c r="D14">
-        <v>0.05957242698190868</v>
+        <v>0.06911445962465379</v>
       </c>
       <c r="E14">
-        <v>0.02788893751245247</v>
+        <v>0.06549545491334641</v>
       </c>
       <c r="F14">
-        <v>3.656516884295684</v>
+        <v>2.729632069562825</v>
       </c>
       <c r="G14">
-        <v>0.0007623069057805886</v>
+        <v>0.0008042173905115482</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.494579477679636</v>
+        <v>2.654668894175416</v>
       </c>
       <c r="L14">
-        <v>0.5492125195119257</v>
+        <v>0.4374296146327197</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.408591576907284</v>
+        <v>2.190280814735843</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.180930964582387</v>
+        <v>2.985397694434539</v>
       </c>
       <c r="C15">
-        <v>0.7922617875927358</v>
+        <v>0.1706555281234756</v>
       </c>
       <c r="D15">
-        <v>0.05963378538068298</v>
+        <v>0.06940915961189376</v>
       </c>
       <c r="E15">
-        <v>0.02776366571740141</v>
+        <v>0.06494190384859877</v>
       </c>
       <c r="F15">
-        <v>3.618787157235744</v>
+        <v>2.707770000512085</v>
       </c>
       <c r="G15">
-        <v>0.0007634814085851888</v>
+        <v>0.0008050887172251575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.476280189752671</v>
+        <v>2.623818814463448</v>
       </c>
       <c r="L15">
-        <v>0.5427884693474567</v>
+        <v>0.4325911572395</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.408238511898958</v>
+        <v>2.187475785768129</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.755009085980078</v>
+        <v>2.792765019561671</v>
       </c>
       <c r="C16">
-        <v>0.7363776330001883</v>
+        <v>0.159724626681367</v>
       </c>
       <c r="D16">
-        <v>0.06004720261007179</v>
+        <v>0.07110374232833117</v>
       </c>
       <c r="E16">
-        <v>0.02706319812673286</v>
+        <v>0.06180734403000798</v>
       </c>
       <c r="F16">
-        <v>3.406335168197899</v>
+        <v>2.584294838715977</v>
       </c>
       <c r="G16">
-        <v>0.0007702232401041179</v>
+        <v>0.000810104920286692</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.37262086019949</v>
+        <v>2.448558545754452</v>
       </c>
       <c r="L16">
-        <v>0.5064399174495833</v>
+        <v>0.4051301849839177</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.407446090760502</v>
+        <v>2.17243156930688</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.497899698268782</v>
+        <v>2.676053885171939</v>
       </c>
       <c r="C17">
-        <v>0.7025967177999632</v>
+        <v>0.1530848459240559</v>
       </c>
       <c r="D17">
-        <v>0.06035264108349736</v>
+        <v>0.07214844909002238</v>
       </c>
       <c r="E17">
-        <v>0.02664823770609281</v>
+        <v>0.05991625132719136</v>
       </c>
       <c r="F17">
-        <v>3.279130772043914</v>
+        <v>2.510073495702827</v>
       </c>
       <c r="G17">
-        <v>0.0007743724496159895</v>
+        <v>0.0008132041732301191</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.310024328908355</v>
+        <v>2.342319178955734</v>
       </c>
       <c r="L17">
-        <v>0.484526597222569</v>
+        <v>0.3885070498133842</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.407997196107146</v>
+        <v>2.164082006636136</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.3514281936923</v>
+        <v>2.609425921994614</v>
       </c>
       <c r="C18">
-        <v>0.6833344150635128</v>
+        <v>0.149287859869716</v>
       </c>
       <c r="D18">
-        <v>0.0605461279393964</v>
+        <v>0.0727512196022797</v>
       </c>
       <c r="E18">
-        <v>0.02641468972355199</v>
+        <v>0.0588396011338439</v>
       </c>
       <c r="F18">
-        <v>3.20702986546803</v>
+        <v>2.467911573623809</v>
       </c>
       <c r="G18">
-        <v>0.0007767650955508345</v>
+        <v>0.0008149954171041119</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.274355590943571</v>
+        <v>2.281649228676656</v>
       </c>
       <c r="L18">
-        <v>0.4720531046379079</v>
+        <v>0.3790224652460523</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.408672456764364</v>
+        <v>2.159587683644901</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.302066548409641</v>
+        <v>2.586949602367326</v>
       </c>
       <c r="C19">
-        <v>0.6768397894442728</v>
+        <v>0.148005850553389</v>
       </c>
       <c r="D19">
-        <v>0.06061458716260759</v>
+        <v>0.07295563058373844</v>
       </c>
       <c r="E19">
-        <v>0.02633646815565527</v>
+        <v>0.05847690531091843</v>
       </c>
       <c r="F19">
-        <v>3.182792707189549</v>
+        <v>2.453724003613061</v>
       </c>
       <c r="G19">
-        <v>0.0007775763686630273</v>
+        <v>0.0008156034358574695</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.262333578997783</v>
+        <v>2.261179302338064</v>
       </c>
       <c r="L19">
-        <v>0.4678511996972503</v>
+        <v>0.3758238071730347</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.408960565613171</v>
+        <v>2.158117526772088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.525120684943943</v>
+        <v>2.688425316414111</v>
       </c>
       <c r="C20">
-        <v>0.7061750419296686</v>
+        <v>0.153789332654128</v>
       </c>
       <c r="D20">
-        <v>0.06031825704455684</v>
+        <v>0.07203704335926808</v>
       </c>
       <c r="E20">
-        <v>0.02669187397731676</v>
+        <v>0.06011640280386032</v>
       </c>
       <c r="F20">
-        <v>3.292559947752949</v>
+        <v>2.517919095878796</v>
       </c>
       <c r="G20">
-        <v>0.0007739301515833465</v>
+        <v>0.0008128733709523628</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.316652489149774</v>
+        <v>2.353582676460263</v>
       </c>
       <c r="L20">
-        <v>0.486845562805712</v>
+        <v>0.3902685633628522</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.407900953432431</v>
+        <v>2.164938611309893</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.292295812144516</v>
+        <v>3.035614822302477</v>
       </c>
       <c r="C21">
-        <v>0.8068599158271752</v>
+        <v>0.1734999486126156</v>
       </c>
       <c r="D21">
-        <v>0.05954414649226436</v>
+        <v>0.06897324552495654</v>
       </c>
       <c r="E21">
-        <v>0.02794932835609565</v>
+        <v>0.06576158799155962</v>
       </c>
       <c r="F21">
-        <v>3.674679234692888</v>
+        <v>2.740148756398867</v>
       </c>
       <c r="G21">
-        <v>0.0007617438499875175</v>
+        <v>0.0008037999508719684</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.503377028417461</v>
+        <v>2.669490666512615</v>
       </c>
       <c r="L21">
-        <v>0.552301690745935</v>
+        <v>0.4397547052135025</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.408783556707078</v>
+        <v>2.191644707136049</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.80905667728149</v>
+        <v>3.267789749146232</v>
       </c>
       <c r="C22">
-        <v>0.8745367048402954</v>
+        <v>0.1866270822612393</v>
       </c>
       <c r="D22">
-        <v>0.05922473153587049</v>
+        <v>0.06698780208118471</v>
       </c>
       <c r="E22">
-        <v>0.02882340279056095</v>
+        <v>0.06956386843956608</v>
       </c>
       <c r="F22">
-        <v>3.935812231046327</v>
+        <v>2.890817604448046</v>
       </c>
       <c r="G22">
-        <v>0.0007538062925358769</v>
+        <v>0.000797934500824332</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.629081820933095</v>
+        <v>2.880572509427509</v>
       </c>
       <c r="L22">
-        <v>0.5964923647249378</v>
+        <v>0.4728993111962865</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.413064589120552</v>
+        <v>2.212176829099434</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.531697259975999</v>
+        <v>3.143350206095192</v>
       </c>
       <c r="C23">
-        <v>0.8382246837501839</v>
+        <v>0.1795959205601605</v>
       </c>
       <c r="D23">
-        <v>0.05937664592840974</v>
+        <v>0.06804590835523783</v>
       </c>
       <c r="E23">
-        <v>0.02835176351858415</v>
+        <v>0.06752345527083037</v>
       </c>
       <c r="F23">
-        <v>3.795296074899142</v>
+        <v>2.809868564610923</v>
       </c>
       <c r="G23">
-        <v>0.0007580417182230721</v>
+        <v>0.0008010597312106851</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.56161877033577</v>
+        <v>2.767453670472207</v>
       </c>
       <c r="L23">
-        <v>0.5727646472870589</v>
+        <v>0.4551297567757047</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.410413547674551</v>
+        <v>2.200919485227161</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.512809919695712</v>
+        <v>2.68283073440648</v>
       </c>
       <c r="C24">
-        <v>0.704556790967672</v>
+        <v>0.1534707714538968</v>
       </c>
       <c r="D24">
-        <v>0.06033374664848168</v>
+        <v>0.07208740317979689</v>
       </c>
       <c r="E24">
-        <v>0.02667213045778283</v>
+        <v>0.06002588156957245</v>
       </c>
       <c r="F24">
-        <v>3.286485427540555</v>
+        <v>2.514370522605972</v>
       </c>
       <c r="G24">
-        <v>0.0007741300917718496</v>
+        <v>0.0008130228971927667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.313654911973089</v>
+        <v>2.348489184746199</v>
       </c>
       <c r="L24">
-        <v>0.485796772463388</v>
+        <v>0.3894719592432381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407943353735789</v>
+        <v>2.164550390927076</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.466562010291682</v>
+        <v>2.204879951470389</v>
       </c>
       <c r="C25">
-        <v>0.5666263093501698</v>
+        <v>0.1261113148558337</v>
       </c>
       <c r="D25">
-        <v>0.0620360945770706</v>
+        <v>0.07651894602203768</v>
       </c>
       <c r="E25">
-        <v>0.02505357480493409</v>
+        <v>0.0523545960621874</v>
       </c>
       <c r="F25">
-        <v>2.777524593290991</v>
+        <v>2.215492549319904</v>
       </c>
       <c r="G25">
-        <v>0.0007917299552059331</v>
+        <v>0.0008262630055453558</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.058715977947642</v>
+        <v>1.912907001461292</v>
       </c>
       <c r="L25">
-        <v>0.3968723661040769</v>
+        <v>0.3215228845603662</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.418766845814687</v>
+        <v>2.136949464876324</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.865345274680095</v>
+        <v>1.20585257026886</v>
       </c>
       <c r="C2">
-        <v>0.1064454161360828</v>
+        <v>0.1275501931355763</v>
       </c>
       <c r="D2">
-        <v>0.0798451295203062</v>
+        <v>0.06046935238200746</v>
       </c>
       <c r="E2">
-        <v>0.04699610546238731</v>
+        <v>0.0555330610595135</v>
       </c>
       <c r="F2">
-        <v>2.009122972597567</v>
+        <v>0.7930211513577063</v>
       </c>
       <c r="G2">
-        <v>0.0008363598586300872</v>
+        <v>0.7143653300298922</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003416207915671432</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5225504890752859</v>
       </c>
       <c r="K2">
-        <v>1.602788835596613</v>
+        <v>0.5635784581054466</v>
       </c>
       <c r="L2">
-        <v>0.2733962761121091</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.093938616390005</v>
       </c>
       <c r="N2">
-        <v>2.125088679374898</v>
+        <v>0.2702037615903237</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.993838900681709</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.641316148629755</v>
+        <v>1.051076801627744</v>
       </c>
       <c r="C3">
-        <v>0.09331858757910538</v>
+        <v>0.1148130793540574</v>
       </c>
       <c r="D3">
-        <v>0.0821398357733214</v>
+        <v>0.05693479873028906</v>
       </c>
       <c r="E3">
-        <v>0.04351570711505026</v>
+        <v>0.0516594141214437</v>
       </c>
       <c r="F3">
-        <v>1.876333369859381</v>
+        <v>0.7499158189578168</v>
       </c>
       <c r="G3">
-        <v>0.000843445896808294</v>
+        <v>0.679985224990574</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00548137524364023</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5120480625151487</v>
       </c>
       <c r="K3">
-        <v>1.397731903591733</v>
+        <v>0.5515432376182048</v>
       </c>
       <c r="L3">
-        <v>0.2417213087259142</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9500246135462191</v>
       </c>
       <c r="N3">
-        <v>2.121662903281575</v>
+        <v>0.2388356783025216</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.031354283198944</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.506274738596034</v>
+        <v>0.9559679362457132</v>
       </c>
       <c r="C4">
-        <v>0.08532923791022995</v>
+        <v>0.107079999223707</v>
       </c>
       <c r="D4">
-        <v>0.08356921116745042</v>
+        <v>0.05475987267374549</v>
       </c>
       <c r="E4">
-        <v>0.04144448076255891</v>
+        <v>0.04931106402014862</v>
       </c>
       <c r="F4">
-        <v>1.797853197283047</v>
+        <v>0.7242196053971313</v>
       </c>
       <c r="G4">
-        <v>0.0008479245258336007</v>
+        <v>0.6595740387702591</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007109772494361621</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5060488706685646</v>
       </c>
       <c r="K4">
-        <v>1.273907614455567</v>
+        <v>0.5445466878807146</v>
       </c>
       <c r="L4">
-        <v>0.2226641327520582</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8618432475403495</v>
       </c>
       <c r="N4">
-        <v>2.121638696598609</v>
+        <v>0.2198555345316464</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.055148717564428</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.451810678933526</v>
+        <v>0.9163268174073949</v>
       </c>
       <c r="C5">
-        <v>0.08208740591838648</v>
+        <v>0.1041335289883563</v>
       </c>
       <c r="D5">
-        <v>0.08415689038181107</v>
+        <v>0.05391759807226748</v>
       </c>
       <c r="E5">
-        <v>0.04061577872829147</v>
+        <v>0.04832042154734495</v>
       </c>
       <c r="F5">
-        <v>1.766580620047165</v>
+        <v>0.713269589554784</v>
       </c>
       <c r="G5">
-        <v>0.0008497827917087042</v>
+        <v>0.6507030734053671</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007943257864313491</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5033469536548125</v>
       </c>
       <c r="K5">
-        <v>1.223911937006562</v>
+        <v>0.5412213549920679</v>
       </c>
       <c r="L5">
-        <v>0.2149867239031948</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8257585180578246</v>
       </c>
       <c r="N5">
-        <v>2.122124875408474</v>
+        <v>0.2122423719802384</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.064680125474951</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.442799343154007</v>
+        <v>0.9086958873543267</v>
       </c>
       <c r="C6">
-        <v>0.08154983407536065</v>
+        <v>0.1038739679044269</v>
       </c>
       <c r="D6">
-        <v>0.08425478993823798</v>
+        <v>0.05383348019142531</v>
       </c>
       <c r="E6">
-        <v>0.04047906647824107</v>
+        <v>0.04810644655436569</v>
       </c>
       <c r="F6">
-        <v>1.761428991452618</v>
+        <v>0.7106536254949916</v>
       </c>
       <c r="G6">
-        <v>0.0008500933894806166</v>
+        <v>0.6483616361024644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00819583350949582</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5024578306990151</v>
       </c>
       <c r="K6">
-        <v>1.215636536323501</v>
+        <v>0.5399801257480306</v>
       </c>
       <c r="L6">
-        <v>0.2137169684070415</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.819543991780705</v>
       </c>
       <c r="N6">
-        <v>2.122234818134473</v>
+        <v>0.2110510243516899</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.065846338038407</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.505538007195099</v>
+        <v>0.9525637662212318</v>
       </c>
       <c r="C7">
-        <v>0.08528546606295606</v>
+        <v>0.1076663566717855</v>
       </c>
       <c r="D7">
-        <v>0.08357711568316795</v>
+        <v>0.05490191666227773</v>
       </c>
       <c r="E7">
-        <v>0.04143324400727444</v>
+        <v>0.04916113981119707</v>
       </c>
       <c r="F7">
-        <v>1.797428649713567</v>
+        <v>0.7218615469454832</v>
       </c>
       <c r="G7">
-        <v>0.0008479494513576726</v>
+        <v>0.657053823818444</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007400565464545927</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5047919091586692</v>
       </c>
       <c r="K7">
-        <v>1.273231553455133</v>
+        <v>0.5426039558405762</v>
       </c>
       <c r="L7">
-        <v>0.222560246560306</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8607402619944082</v>
       </c>
       <c r="N7">
-        <v>2.121643278909502</v>
+        <v>0.2199412122273259</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.05412228950183</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.787537354748792</v>
+        <v>1.148652534333223</v>
       </c>
       <c r="C8">
-        <v>0.1019022218921748</v>
+        <v>0.123976829151303</v>
       </c>
       <c r="D8">
-        <v>0.08063214309973255</v>
+        <v>0.05945870688744037</v>
       </c>
       <c r="E8">
-        <v>0.04578167130013711</v>
+        <v>0.05400922288205123</v>
       </c>
       <c r="F8">
-        <v>1.962666536995897</v>
+        <v>0.7750620982133825</v>
       </c>
       <c r="G8">
-        <v>0.0008387772646260006</v>
+        <v>0.6991795649390156</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00438050555957048</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5172215926244945</v>
       </c>
       <c r="K8">
-        <v>1.531615854610152</v>
+        <v>0.556835445763987</v>
       </c>
       <c r="L8">
-        <v>0.2623873453690209</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.043440194803765</v>
       </c>
       <c r="N8">
-        <v>2.123459171108593</v>
+        <v>0.2595764063329398</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.005150255733081</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.363719940771659</v>
+        <v>1.538254892123234</v>
       </c>
       <c r="C9">
-        <v>0.1352389555873685</v>
+        <v>0.1556802669097976</v>
       </c>
       <c r="D9">
-        <v>0.07501645945081137</v>
+        <v>0.06808908930396029</v>
       </c>
       <c r="E9">
-        <v>0.05488941271216419</v>
+        <v>0.06402288297917025</v>
       </c>
       <c r="F9">
-        <v>2.313831950128332</v>
+        <v>0.8900142237135782</v>
       </c>
       <c r="G9">
-        <v>0.0008217526743267566</v>
+        <v>0.792146135868748</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00109334963180352</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5475661300421564</v>
       </c>
       <c r="K9">
-        <v>2.0577722782065</v>
+        <v>0.5914795241096584</v>
       </c>
       <c r="L9">
-        <v>0.3440805343368112</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.404917656665873</v>
       </c>
       <c r="N9">
-        <v>2.144836782664228</v>
+        <v>0.3394431453999545</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.9173238954969314</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.806153074698784</v>
+        <v>1.823634538850712</v>
       </c>
       <c r="C10">
-        <v>0.1604854151481874</v>
+        <v>0.180059464884863</v>
       </c>
       <c r="D10">
-        <v>0.07098478936223174</v>
+        <v>0.07451791676055564</v>
       </c>
       <c r="E10">
-        <v>0.06202467544066437</v>
+        <v>0.0715023808270594</v>
       </c>
       <c r="F10">
-        <v>2.592837923269713</v>
+        <v>0.9782439265948994</v>
       </c>
       <c r="G10">
-        <v>0.0008097524042298499</v>
+        <v>0.8637126653103593</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009401802156308037</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5719088955478639</v>
       </c>
       <c r="K10">
-        <v>2.460742657301779</v>
+        <v>0.6183702871427457</v>
       </c>
       <c r="L10">
-        <v>0.407037768535929</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.672380525872057</v>
       </c>
       <c r="N10">
-        <v>2.173427140002417</v>
+        <v>0.4001106296931454</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8564537571357498</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.012823725436647</v>
+        <v>1.948842461495673</v>
       </c>
       <c r="C11">
-        <v>0.1722092510287041</v>
+        <v>0.1924544539350705</v>
       </c>
       <c r="D11">
-        <v>0.0691707928562888</v>
+        <v>0.07772174986348546</v>
       </c>
       <c r="E11">
-        <v>0.06538944849986095</v>
+        <v>0.07472575532213455</v>
       </c>
       <c r="F11">
-        <v>2.725444128745124</v>
+        <v>1.015992529343393</v>
       </c>
       <c r="G11">
-        <v>0.000804383930169388</v>
+        <v>0.8934770497411506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001780621547973205</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5816576689084059</v>
       </c>
       <c r="K11">
-        <v>2.648763245045188</v>
+        <v>0.62811133324184</v>
       </c>
       <c r="L11">
-        <v>0.4365032816816381</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.793667810718972</v>
       </c>
       <c r="N11">
-        <v>2.189740305347982</v>
+        <v>0.4285199484665156</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8281768854494231</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.091978142303901</v>
+        <v>1.998914949541984</v>
       </c>
       <c r="C12">
-        <v>0.1766902008052966</v>
+        <v>0.1966140640085285</v>
       </c>
       <c r="D12">
-        <v>0.06848677047050167</v>
+        <v>0.0787927284021066</v>
       </c>
       <c r="E12">
-        <v>0.06668277933161804</v>
+        <v>0.07607522847871095</v>
       </c>
       <c r="F12">
-        <v>2.776580856121114</v>
+        <v>1.03241837251089</v>
       </c>
       <c r="G12">
-        <v>0.0008023622457412778</v>
+        <v>0.9070249768561354</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001976783573762297</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5865051178623446</v>
       </c>
       <c r="K12">
-        <v>2.72074489789739</v>
+        <v>0.6335355553340563</v>
       </c>
       <c r="L12">
-        <v>0.4477973013797225</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.840293413117905</v>
       </c>
       <c r="N12">
-        <v>2.196441325595259</v>
+        <v>0.4391942654504675</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8184720752319983</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.074889144063945</v>
+        <v>1.988653471572093</v>
       </c>
       <c r="C13">
-        <v>0.175723186940445</v>
+        <v>0.1956007860635225</v>
       </c>
       <c r="D13">
-        <v>0.068633957418891</v>
+        <v>0.0785328754339929</v>
       </c>
       <c r="E13">
-        <v>0.0664033498175165</v>
+        <v>0.07580865134398351</v>
       </c>
       <c r="F13">
-        <v>2.765524874878821</v>
+        <v>1.029261000949475</v>
       </c>
       <c r="G13">
-        <v>0.0008027971820536508</v>
+        <v>0.9045203605962655</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001887636583993491</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5856684128862071</v>
       </c>
       <c r="K13">
-        <v>2.70520576192672</v>
+        <v>0.6326932202662903</v>
       </c>
       <c r="L13">
-        <v>0.4453585847015376</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.830362738368308</v>
       </c>
       <c r="N13">
-        <v>2.194974032048322</v>
+        <v>0.4368587138324926</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8207239131574404</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.019317209095675</v>
+        <v>1.95318361628955</v>
       </c>
       <c r="C14">
-        <v>0.1725770289235271</v>
+        <v>0.1927467667418767</v>
       </c>
       <c r="D14">
-        <v>0.06911445962465379</v>
+        <v>0.07779747000204651</v>
       </c>
       <c r="E14">
-        <v>0.06549545491334641</v>
+        <v>0.0748469810865835</v>
       </c>
       <c r="F14">
-        <v>2.729632069562825</v>
+        <v>1.01750514551857</v>
       </c>
       <c r="G14">
-        <v>0.0008042173905115482</v>
+        <v>0.8947669084267744</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001776371931261345</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.582144407690393</v>
       </c>
       <c r="K14">
-        <v>2.654668894175416</v>
+        <v>0.628695884387632</v>
       </c>
       <c r="L14">
-        <v>0.4374296146327197</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.797550649476079</v>
       </c>
       <c r="N14">
-        <v>2.190280814735843</v>
+        <v>0.4293824732161511</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8274472305745384</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.985397694434539</v>
+        <v>1.930433391674768</v>
       </c>
       <c r="C15">
-        <v>0.1706555281234756</v>
+        <v>0.1912313330351338</v>
       </c>
       <c r="D15">
-        <v>0.06940915961189376</v>
+        <v>0.07740444958264447</v>
       </c>
       <c r="E15">
-        <v>0.06494190384859877</v>
+        <v>0.07421096472774025</v>
       </c>
       <c r="F15">
-        <v>2.707770000512085</v>
+        <v>1.009564749928757</v>
       </c>
       <c r="G15">
-        <v>0.0008050887172251575</v>
+        <v>0.8879875777805069</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001808944062205775</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5795821916203323</v>
       </c>
       <c r="K15">
-        <v>2.623818814463448</v>
+        <v>0.6256102201083138</v>
       </c>
       <c r="L15">
-        <v>0.4325911572395</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.777239889096052</v>
       </c>
       <c r="N15">
-        <v>2.187475785768129</v>
+        <v>0.4248786907161843</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8312516308250402</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.792765019561671</v>
+        <v>1.806786145646839</v>
       </c>
       <c r="C16">
-        <v>0.159724626681367</v>
+        <v>0.1811624178632911</v>
       </c>
       <c r="D16">
-        <v>0.07110374232833117</v>
+        <v>0.07478789563503341</v>
       </c>
       <c r="E16">
-        <v>0.06180734403000798</v>
+        <v>0.07088874721124938</v>
       </c>
       <c r="F16">
-        <v>2.584294838715977</v>
+        <v>0.9693496994686654</v>
       </c>
       <c r="G16">
-        <v>0.000810104920286692</v>
+        <v>0.8548007263755721</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001608946160101432</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5677666942936241</v>
       </c>
       <c r="K16">
-        <v>2.448558545754452</v>
+        <v>0.6122648833047037</v>
       </c>
       <c r="L16">
-        <v>0.4051301849839177</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.662552812193923</v>
       </c>
       <c r="N16">
-        <v>2.17243156930688</v>
+        <v>0.3988123072681589</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8554650152056347</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676053885171939</v>
+        <v>1.731065855748426</v>
       </c>
       <c r="C17">
-        <v>0.1530848459240559</v>
+        <v>0.1750371673297622</v>
       </c>
       <c r="D17">
-        <v>0.07214844909002238</v>
+        <v>0.07318218927614595</v>
       </c>
       <c r="E17">
-        <v>0.05991625132719136</v>
+        <v>0.06886572727402651</v>
       </c>
       <c r="F17">
-        <v>2.510073495702827</v>
+        <v>0.9450419032927186</v>
       </c>
       <c r="G17">
-        <v>0.0008132041732301191</v>
+        <v>0.8347801238450785</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001634144587860931</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5607070272602925</v>
       </c>
       <c r="K17">
-        <v>2.342319178955734</v>
+        <v>0.6042605730906701</v>
       </c>
       <c r="L17">
-        <v>0.3885070498133842</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.592402282750356</v>
       </c>
       <c r="N17">
-        <v>2.164082006636136</v>
+        <v>0.3829534854304626</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8705823623954672</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.609425921994614</v>
+        <v>1.69016971422775</v>
       </c>
       <c r="C18">
-        <v>0.149287859869716</v>
+        <v>0.1709527125326957</v>
       </c>
       <c r="D18">
-        <v>0.0727512196022797</v>
+        <v>0.07211357205293467</v>
       </c>
       <c r="E18">
-        <v>0.0588396011338439</v>
+        <v>0.06782934083144454</v>
       </c>
       <c r="F18">
-        <v>2.467911573623809</v>
+        <v>0.9331375477560471</v>
       </c>
       <c r="G18">
-        <v>0.0008149954171041119</v>
+        <v>0.8254946929558571</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001443937664383554</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5577772076724017</v>
       </c>
       <c r="K18">
-        <v>2.281649228676656</v>
+        <v>0.6013761466218668</v>
       </c>
       <c r="L18">
-        <v>0.3790224652460523</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.55269876743003</v>
       </c>
       <c r="N18">
-        <v>2.159587683644901</v>
+        <v>0.3737118716052095</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8802417271660801</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.586949602367326</v>
+        <v>1.674314373784711</v>
       </c>
       <c r="C19">
-        <v>0.148005850553389</v>
+        <v>0.1700189684974021</v>
       </c>
       <c r="D19">
-        <v>0.07295563058373844</v>
+        <v>0.0718633493031291</v>
       </c>
       <c r="E19">
-        <v>0.05847690531091843</v>
+        <v>0.067385273521964</v>
       </c>
       <c r="F19">
-        <v>2.453724003613061</v>
+        <v>0.9276244470767239</v>
       </c>
       <c r="G19">
-        <v>0.0008156034358574695</v>
+        <v>0.8207419898347013</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001583097206482975</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5559757974563979</v>
       </c>
       <c r="K19">
-        <v>2.261179302338064</v>
+        <v>0.5991335116856931</v>
       </c>
       <c r="L19">
-        <v>0.3758238071730347</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.538822913284122</v>
       </c>
       <c r="N19">
-        <v>2.158117526772088</v>
+        <v>0.370718597697973</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8828571336634461</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.688425316414111</v>
+        <v>1.739327083957249</v>
       </c>
       <c r="C20">
-        <v>0.153789332654128</v>
+        <v>0.1756418311283028</v>
       </c>
       <c r="D20">
-        <v>0.07203704335926808</v>
+        <v>0.07334175218407779</v>
       </c>
       <c r="E20">
-        <v>0.06011640280386032</v>
+        <v>0.06909010174874197</v>
       </c>
       <c r="F20">
-        <v>2.517919095878796</v>
+        <v>0.947769189076709</v>
       </c>
       <c r="G20">
-        <v>0.0008128733709523628</v>
+        <v>0.8370646078668926</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001605679649895109</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5615350233676537</v>
       </c>
       <c r="K20">
-        <v>2.353582676460263</v>
+        <v>0.6052357386772371</v>
       </c>
       <c r="L20">
-        <v>0.3902685633628522</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.599907907092387</v>
       </c>
       <c r="N20">
-        <v>2.164938611309893</v>
+        <v>0.3846238289915505</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8690310536849601</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.035614822302477</v>
+        <v>1.960656042105995</v>
       </c>
       <c r="C21">
-        <v>0.1734999486126156</v>
+        <v>0.1942338130977248</v>
       </c>
       <c r="D21">
-        <v>0.06897324552495654</v>
+        <v>0.07817691691281681</v>
       </c>
       <c r="E21">
-        <v>0.06576158799155962</v>
+        <v>0.07499239912504052</v>
       </c>
       <c r="F21">
-        <v>2.740148756398867</v>
+        <v>1.018770447068704</v>
       </c>
       <c r="G21">
-        <v>0.0008037999508719684</v>
+        <v>0.89526407055709</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002061506428039372</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5819886859441823</v>
       </c>
       <c r="K21">
-        <v>2.669490666512615</v>
+        <v>0.6280174720137666</v>
       </c>
       <c r="L21">
-        <v>0.4397547052135025</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.806531091691824</v>
       </c>
       <c r="N21">
-        <v>2.191644707136049</v>
+        <v>0.4317610865092405</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8245245602449529</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.267789749146232</v>
+        <v>2.109546737528433</v>
       </c>
       <c r="C22">
-        <v>0.1866270822612393</v>
+        <v>0.2057473757000992</v>
       </c>
       <c r="D22">
-        <v>0.06698780208118471</v>
+        <v>0.08112878718051064</v>
       </c>
       <c r="E22">
-        <v>0.06956386843956608</v>
+        <v>0.07907585916383653</v>
       </c>
       <c r="F22">
-        <v>2.890817604448046</v>
+        <v>1.069205817377579</v>
       </c>
       <c r="G22">
-        <v>0.000797934500824332</v>
+        <v>0.9374784958172597</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002538100838362034</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5975139040372568</v>
       </c>
       <c r="K22">
-        <v>2.880572509427509</v>
+        <v>0.6458853645529246</v>
       </c>
       <c r="L22">
-        <v>0.4728993111962865</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.943157294926863</v>
       </c>
       <c r="N22">
-        <v>2.212176829099434</v>
+        <v>0.4627970524624487</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7975263974110121</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.143350206095192</v>
+        <v>2.033584362352371</v>
       </c>
       <c r="C23">
-        <v>0.1795959205601605</v>
+        <v>0.198800971079919</v>
       </c>
       <c r="D23">
-        <v>0.06804590835523783</v>
+        <v>0.07935611388104746</v>
       </c>
       <c r="E23">
-        <v>0.06752345527083037</v>
+        <v>0.07705652686487596</v>
       </c>
       <c r="F23">
-        <v>2.809868564610923</v>
+        <v>1.044798267971458</v>
       </c>
       <c r="G23">
-        <v>0.0008010597312106851</v>
+        <v>0.9176844259675221</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001947103504750913</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5905984330090774</v>
       </c>
       <c r="K23">
-        <v>2.767453670472207</v>
+        <v>0.6385205416102551</v>
       </c>
       <c r="L23">
-        <v>0.4551297567757047</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.870951521729893</v>
       </c>
       <c r="N23">
-        <v>2.200919485227161</v>
+        <v>0.4459647508739835</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.8129875687248642</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.68283073440648</v>
+        <v>1.741132705298924</v>
       </c>
       <c r="C24">
-        <v>0.1534707714538968</v>
+        <v>0.1741450365013719</v>
       </c>
       <c r="D24">
-        <v>0.07208740317979689</v>
+        <v>0.0729631186176789</v>
       </c>
       <c r="E24">
-        <v>0.06002588156957245</v>
+        <v>0.06924703705638535</v>
       </c>
       <c r="F24">
-        <v>2.514370522605972</v>
+        <v>0.9506661049421865</v>
       </c>
       <c r="G24">
-        <v>0.0008130228971927667</v>
+        <v>0.8405051882571257</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001117060554336469</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5634138513974136</v>
       </c>
       <c r="K24">
-        <v>2.348489184746199</v>
+        <v>0.6083023305980362</v>
       </c>
       <c r="L24">
-        <v>0.3894719592432381</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.597736784088198</v>
       </c>
       <c r="N24">
-        <v>2.164550390927076</v>
+        <v>0.3835172780560896</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8715716390315578</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.204879951470389</v>
+        <v>1.427476754067811</v>
       </c>
       <c r="C25">
-        <v>0.1261113148558337</v>
+        <v>0.1481562907006406</v>
       </c>
       <c r="D25">
-        <v>0.07651894602203768</v>
+        <v>0.06604591802457804</v>
       </c>
       <c r="E25">
-        <v>0.0523545960621874</v>
+        <v>0.06103295106153794</v>
       </c>
       <c r="F25">
-        <v>2.215492549319904</v>
+        <v>0.8541133133453087</v>
       </c>
       <c r="G25">
-        <v>0.0008262630055453558</v>
+        <v>0.7619244550060102</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002075753884149378</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.536722337669687</v>
       </c>
       <c r="K25">
-        <v>1.912907001461292</v>
+        <v>0.5782974816001101</v>
       </c>
       <c r="L25">
-        <v>0.3215228845603662</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.3056486725865</v>
       </c>
       <c r="N25">
-        <v>2.136949464876324</v>
+        <v>0.3178747643379722</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9384972060982122</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.20585257026886</v>
+        <v>1.123450744084181</v>
       </c>
       <c r="C2">
-        <v>0.1275501931355763</v>
+        <v>0.135955425905891</v>
       </c>
       <c r="D2">
-        <v>0.06046935238200746</v>
+        <v>0.06320950819063853</v>
       </c>
       <c r="E2">
-        <v>0.0555330610595135</v>
+        <v>0.05012759601800276</v>
       </c>
       <c r="F2">
-        <v>0.7930211513577063</v>
+        <v>0.7158447971592992</v>
       </c>
       <c r="G2">
-        <v>0.7143653300298922</v>
+        <v>0.613704819237654</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003416207915671432</v>
+        <v>0.002354859623937777</v>
       </c>
       <c r="J2">
-        <v>0.5225504890752859</v>
+        <v>0.50227940674732</v>
       </c>
       <c r="K2">
-        <v>0.5635784581054466</v>
+        <v>0.4877592419688455</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2243136812735536</v>
       </c>
       <c r="M2">
-        <v>1.093938616390005</v>
+        <v>0.1465586938734837</v>
       </c>
       <c r="N2">
-        <v>0.2702037615903237</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.080446776299965</v>
       </c>
       <c r="P2">
-        <v>0.993838900681709</v>
+        <v>0.2771092380931464</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9303373160800454</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051076801627744</v>
+        <v>0.9826294906522719</v>
       </c>
       <c r="C3">
-        <v>0.1148130793540574</v>
+        <v>0.1194357128154024</v>
       </c>
       <c r="D3">
-        <v>0.05693479873028906</v>
+        <v>0.05847797523981058</v>
       </c>
       <c r="E3">
-        <v>0.0516594141214437</v>
+        <v>0.0468016745066695</v>
       </c>
       <c r="F3">
-        <v>0.7499158189578168</v>
+        <v>0.6808176113803484</v>
       </c>
       <c r="G3">
-        <v>0.679985224990574</v>
+        <v>0.589928808484359</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00548137524364023</v>
+        <v>0.003768043186278991</v>
       </c>
       <c r="J3">
-        <v>0.5120480625151487</v>
+        <v>0.4913699646292287</v>
       </c>
       <c r="K3">
-        <v>0.5515432376182048</v>
+        <v>0.4814616835357235</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2268585599180106</v>
       </c>
       <c r="M3">
-        <v>0.9500246135462191</v>
+        <v>0.1404859806925529</v>
       </c>
       <c r="N3">
-        <v>0.2388356783025216</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9398714518533779</v>
       </c>
       <c r="P3">
-        <v>1.031354283198944</v>
+        <v>0.244834320421063</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9666899827187088</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9559679362457132</v>
+        <v>0.8957830948746448</v>
       </c>
       <c r="C4">
-        <v>0.107079999223707</v>
+        <v>0.1094585576741025</v>
       </c>
       <c r="D4">
-        <v>0.05475987267374549</v>
+        <v>0.05558120390549703</v>
       </c>
       <c r="E4">
-        <v>0.04931106402014862</v>
+        <v>0.04477746173612296</v>
       </c>
       <c r="F4">
-        <v>0.7242196053971313</v>
+        <v>0.6598512644915857</v>
       </c>
       <c r="G4">
-        <v>0.6595740387702591</v>
+        <v>0.5759797398798128</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007109772494361621</v>
+        <v>0.004918712887986398</v>
       </c>
       <c r="J4">
-        <v>0.5060488706685646</v>
+        <v>0.484780359696245</v>
       </c>
       <c r="K4">
-        <v>0.5445466878807146</v>
+        <v>0.4778183094241228</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2283648422492739</v>
       </c>
       <c r="M4">
-        <v>0.8618432475403495</v>
+        <v>0.137505214355933</v>
       </c>
       <c r="N4">
-        <v>0.2198555345316464</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8535885976973532</v>
       </c>
       <c r="P4">
-        <v>1.055148717564428</v>
+        <v>0.2252977905358335</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9897296001652247</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9163268174073949</v>
+        <v>0.8594797698519585</v>
       </c>
       <c r="C5">
-        <v>0.1041335289883563</v>
+        <v>0.105642240091754</v>
       </c>
       <c r="D5">
-        <v>0.05391759807226748</v>
+        <v>0.05445178111477134</v>
       </c>
       <c r="E5">
-        <v>0.04832042154734495</v>
+        <v>0.0439186439894943</v>
       </c>
       <c r="F5">
-        <v>0.713269589554784</v>
+        <v>0.6508181009728773</v>
       </c>
       <c r="G5">
-        <v>0.6507030734053671</v>
+        <v>0.5697956206175689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007943257864313491</v>
+        <v>0.005549708529539288</v>
       </c>
       <c r="J5">
-        <v>0.5033469536548125</v>
+        <v>0.4817701174835918</v>
       </c>
       <c r="K5">
-        <v>0.5412213549920679</v>
+        <v>0.4758772368249211</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2287264994922751</v>
       </c>
       <c r="M5">
-        <v>0.8257585180578246</v>
+        <v>0.1363308487510437</v>
       </c>
       <c r="N5">
-        <v>0.2122423719802384</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8182479050376799</v>
       </c>
       <c r="P5">
-        <v>1.064680125474951</v>
+        <v>0.2174578033795314</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9990287867726</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9086958873543267</v>
+        <v>0.8524527942754503</v>
       </c>
       <c r="C6">
-        <v>0.1038739679044269</v>
+        <v>0.1052706192282784</v>
       </c>
       <c r="D6">
-        <v>0.05383348019142531</v>
+        <v>0.05432485403913745</v>
       </c>
       <c r="E6">
-        <v>0.04810644655436569</v>
+        <v>0.04372966519930088</v>
       </c>
       <c r="F6">
-        <v>0.7106536254949916</v>
+        <v>0.6485721209432995</v>
       </c>
       <c r="G6">
-        <v>0.6483616361024644</v>
+        <v>0.5679799401401766</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00819583350949582</v>
+        <v>0.005782158709584984</v>
       </c>
       <c r="J6">
-        <v>0.5024578306990151</v>
+        <v>0.4808432840903691</v>
       </c>
       <c r="K6">
-        <v>0.5399801257480306</v>
+        <v>0.4749358800809738</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2284959178616432</v>
       </c>
       <c r="M6">
-        <v>0.819543991780705</v>
+        <v>0.1359687373601162</v>
       </c>
       <c r="N6">
-        <v>0.2110510243516899</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8121616793406758</v>
       </c>
       <c r="P6">
-        <v>1.065846338038407</v>
+        <v>0.2162280863381341</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.000260534799081</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9525637662212318</v>
+        <v>0.891914363176511</v>
       </c>
       <c r="C7">
-        <v>0.1076663566717855</v>
+        <v>0.1098128653944883</v>
       </c>
       <c r="D7">
-        <v>0.05490191666227773</v>
+        <v>0.05584215538551263</v>
       </c>
       <c r="E7">
-        <v>0.04916113981119707</v>
+        <v>0.04468749903985092</v>
       </c>
       <c r="F7">
-        <v>0.7218615469454832</v>
+        <v>0.6563540163557704</v>
       </c>
       <c r="G7">
-        <v>0.657053823818444</v>
+        <v>0.5767955731194121</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007400565464545927</v>
+        <v>0.005252144694587457</v>
       </c>
       <c r="J7">
-        <v>0.5047919091586692</v>
+        <v>0.4781135581714295</v>
       </c>
       <c r="K7">
-        <v>0.5426039558405762</v>
+        <v>0.4753632806068282</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2272614567673727</v>
       </c>
       <c r="M7">
-        <v>0.8607402619944082</v>
+        <v>0.1367695939854876</v>
       </c>
       <c r="N7">
-        <v>0.2199412122273259</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8513540052341284</v>
       </c>
       <c r="P7">
-        <v>1.05412228950183</v>
+        <v>0.2252999890472722</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9885707528587897</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.148652534333223</v>
+        <v>1.069125406942135</v>
       </c>
       <c r="C8">
-        <v>0.123976829151303</v>
+        <v>0.1301457844134859</v>
       </c>
       <c r="D8">
-        <v>0.05945870688744037</v>
+        <v>0.0621769452767964</v>
       </c>
       <c r="E8">
-        <v>0.05400922288205123</v>
+        <v>0.04897221197669488</v>
       </c>
       <c r="F8">
-        <v>0.7750620982133825</v>
+        <v>0.6965687513139045</v>
       </c>
       <c r="G8">
-        <v>0.6991795649390156</v>
+        <v>0.6127961189930886</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00438050555957048</v>
+        <v>0.003176710166033381</v>
       </c>
       <c r="J8">
-        <v>0.5172215926244945</v>
+        <v>0.4790953412736627</v>
       </c>
       <c r="K8">
-        <v>0.556835445763987</v>
+        <v>0.4809102442963535</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2232306518879739</v>
       </c>
       <c r="M8">
-        <v>1.043440194803765</v>
+        <v>0.1427947674261887</v>
       </c>
       <c r="N8">
-        <v>0.2595764063329398</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.027262679699646</v>
       </c>
       <c r="P8">
-        <v>1.005150255733081</v>
+        <v>0.2659015672544598</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9403993735010303</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.538254892123234</v>
+        <v>1.421206274797186</v>
       </c>
       <c r="C9">
-        <v>0.1556802669097976</v>
+        <v>0.171325175203549</v>
       </c>
       <c r="D9">
-        <v>0.06808908930396029</v>
+        <v>0.07397615497983168</v>
       </c>
       <c r="E9">
-        <v>0.06402288297917025</v>
+        <v>0.05758247234678748</v>
       </c>
       <c r="F9">
-        <v>0.8900142237135782</v>
+        <v>0.7885889909614008</v>
       </c>
       <c r="G9">
-        <v>0.792146135868748</v>
+        <v>0.6816672235850234</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00109334963180352</v>
+        <v>0.0009872910460213546</v>
       </c>
       <c r="J9">
-        <v>0.5475661300421564</v>
+        <v>0.5034367568179476</v>
       </c>
       <c r="K9">
-        <v>0.5914795241096584</v>
+        <v>0.4993670431876325</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2173664229339849</v>
       </c>
       <c r="M9">
-        <v>1.404917656665873</v>
+        <v>0.1624407642902561</v>
       </c>
       <c r="N9">
-        <v>0.3394431453999545</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.378248040925286</v>
       </c>
       <c r="P9">
-        <v>0.9173238954969314</v>
+        <v>0.3479331675964232</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8547469899745348</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.823634538850712</v>
+        <v>1.673246383197664</v>
       </c>
       <c r="C10">
-        <v>0.180059464884863</v>
+        <v>0.2012346888842558</v>
       </c>
       <c r="D10">
-        <v>0.07451791676055564</v>
+        <v>0.08352172523698442</v>
       </c>
       <c r="E10">
-        <v>0.0715023808270594</v>
+        <v>0.06426076276338932</v>
       </c>
       <c r="F10">
-        <v>0.9782439265948994</v>
+        <v>0.851013859384949</v>
       </c>
       <c r="G10">
-        <v>0.8637126653103593</v>
+        <v>0.7540063809863824</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0009401802156308037</v>
+        <v>0.001184365428346545</v>
       </c>
       <c r="J10">
-        <v>0.5719088955478639</v>
+        <v>0.4913459164959733</v>
       </c>
       <c r="K10">
-        <v>0.6183702871427457</v>
+        <v>0.5093786173300856</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2110631574000408</v>
       </c>
       <c r="M10">
-        <v>1.672380525872057</v>
+        <v>0.1787528785243708</v>
       </c>
       <c r="N10">
-        <v>0.4001106296931454</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.629911844784345</v>
       </c>
       <c r="P10">
-        <v>0.8564537571357498</v>
+        <v>0.4096560636519087</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.793696309984389</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.948842461495673</v>
+        <v>1.776002281852527</v>
       </c>
       <c r="C11">
-        <v>0.1924544539350705</v>
+        <v>0.2130206608592147</v>
       </c>
       <c r="D11">
-        <v>0.07772174986348546</v>
+        <v>0.08948739769643055</v>
       </c>
       <c r="E11">
-        <v>0.07472575532213455</v>
+        <v>0.06765130610126135</v>
       </c>
       <c r="F11">
-        <v>1.015992529343393</v>
+        <v>0.8635198924198875</v>
       </c>
       <c r="G11">
-        <v>0.8934770497411506</v>
+        <v>0.8185105646924455</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001780621547973205</v>
+        <v>0.002123650852794867</v>
       </c>
       <c r="J11">
-        <v>0.5816576689084059</v>
+        <v>0.4360934092540134</v>
       </c>
       <c r="K11">
-        <v>0.62811133324184</v>
+        <v>0.5044350593767959</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2048083996282983</v>
       </c>
       <c r="M11">
-        <v>1.793667810718972</v>
+        <v>0.1829551575763553</v>
       </c>
       <c r="N11">
-        <v>0.4285199484665156</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.731209408045544</v>
       </c>
       <c r="P11">
-        <v>0.8281768854494231</v>
+        <v>0.4376425003205782</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.763296181242473</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.998914949541984</v>
+        <v>1.816384718036261</v>
       </c>
       <c r="C12">
-        <v>0.1966140640085285</v>
+        <v>0.216451270009415</v>
       </c>
       <c r="D12">
-        <v>0.0787927284021066</v>
+        <v>0.09176851067223168</v>
       </c>
       <c r="E12">
-        <v>0.07607522847871095</v>
+        <v>0.06912423834663528</v>
       </c>
       <c r="F12">
-        <v>1.03241837251089</v>
+        <v>0.8684215240179611</v>
       </c>
       <c r="G12">
-        <v>0.9070249768561354</v>
+        <v>0.8499528135352392</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001976783573762297</v>
+        <v>0.002288344787407581</v>
       </c>
       <c r="J12">
-        <v>0.5865051178623446</v>
+        <v>0.4119484509250242</v>
       </c>
       <c r="K12">
-        <v>0.6335355553340563</v>
+        <v>0.5031100088488145</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2026634548451511</v>
       </c>
       <c r="M12">
-        <v>1.840293413117905</v>
+        <v>0.1848166541767142</v>
       </c>
       <c r="N12">
-        <v>0.4391942654504675</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.768557380266827</v>
       </c>
       <c r="P12">
-        <v>0.8184720752319983</v>
+        <v>0.4480375629091782</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7521839103692392</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.988653471572093</v>
+        <v>1.808218788848023</v>
       </c>
       <c r="C13">
-        <v>0.1956007860635225</v>
+        <v>0.2155975504287255</v>
       </c>
       <c r="D13">
-        <v>0.0785328754339929</v>
+        <v>0.09123500217638281</v>
       </c>
       <c r="E13">
-        <v>0.07580865134398351</v>
+        <v>0.06882608044341865</v>
       </c>
       <c r="F13">
-        <v>1.029261000949475</v>
+        <v>0.8677830602149754</v>
       </c>
       <c r="G13">
-        <v>0.9045203605962655</v>
+        <v>0.8433379271045709</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001887636583993491</v>
+        <v>0.002197799802436506</v>
       </c>
       <c r="J13">
-        <v>0.5856684128862071</v>
+        <v>0.4174447241896786</v>
       </c>
       <c r="K13">
-        <v>0.6326932202662903</v>
+        <v>0.5037092484972021</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2032323658567989</v>
       </c>
       <c r="M13">
-        <v>1.830362738368308</v>
+        <v>0.1845420738245487</v>
       </c>
       <c r="N13">
-        <v>0.4368587138324926</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.760695442844792</v>
       </c>
       <c r="P13">
-        <v>0.8207239131574404</v>
+        <v>0.4457680646898297</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7546642688791145</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.95318361628955</v>
+        <v>1.779551227038553</v>
       </c>
       <c r="C14">
-        <v>0.1927467667418767</v>
+        <v>0.2132543087107877</v>
       </c>
       <c r="D14">
-        <v>0.07779747000204651</v>
+        <v>0.0896570488919437</v>
       </c>
       <c r="E14">
-        <v>0.0748469810865835</v>
+        <v>0.06778048604035547</v>
       </c>
       <c r="F14">
-        <v>1.01750514551857</v>
+        <v>0.8641026516603318</v>
       </c>
       <c r="G14">
-        <v>0.8947669084267744</v>
+        <v>0.821157645324476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001776371931261345</v>
+        <v>0.002113334090838137</v>
       </c>
       <c r="J14">
-        <v>0.582144407690393</v>
+        <v>0.4342430649193147</v>
       </c>
       <c r="K14">
-        <v>0.628695884387632</v>
+        <v>0.5044609111581693</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2046782026679779</v>
       </c>
       <c r="M14">
-        <v>1.797550649476079</v>
+        <v>0.1831621889230632</v>
       </c>
       <c r="N14">
-        <v>0.4293824732161511</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.734360865523769</v>
       </c>
       <c r="P14">
-        <v>0.8274472305745384</v>
+        <v>0.4384846835712466</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7624205827475548</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.930433391674768</v>
+        <v>1.76090524475859</v>
       </c>
       <c r="C15">
-        <v>0.1912313330351338</v>
+        <v>0.2120313143726378</v>
       </c>
       <c r="D15">
-        <v>0.07740444958264447</v>
+        <v>0.0887805563255526</v>
       </c>
       <c r="E15">
-        <v>0.07421096472774025</v>
+        <v>0.06710594644631485</v>
       </c>
       <c r="F15">
-        <v>1.009564749928757</v>
+        <v>0.8609548762295276</v>
       </c>
       <c r="G15">
-        <v>0.8879875777805069</v>
+        <v>0.8074918355560499</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001808944062205775</v>
+        <v>0.002177885613483532</v>
       </c>
       <c r="J15">
-        <v>0.5795821916203323</v>
+        <v>0.4437423924192387</v>
       </c>
       <c r="K15">
-        <v>0.6256102201083138</v>
+        <v>0.5042619788843012</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2053370767257086</v>
       </c>
       <c r="M15">
-        <v>1.777239889096052</v>
+        <v>0.1820567380107434</v>
       </c>
       <c r="N15">
-        <v>0.4248786907161843</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.717806327807068</v>
       </c>
       <c r="P15">
-        <v>0.8312516308250402</v>
+        <v>0.4340823009781474</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7669839061611325</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.806786145646839</v>
+        <v>1.658310810648715</v>
       </c>
       <c r="C16">
-        <v>0.1811624178632911</v>
+        <v>0.2026216080716381</v>
       </c>
       <c r="D16">
-        <v>0.07478789563503341</v>
+        <v>0.08369468517541634</v>
       </c>
       <c r="E16">
-        <v>0.07088874721124938</v>
+        <v>0.06367649858325208</v>
       </c>
       <c r="F16">
-        <v>0.9693496994686654</v>
+        <v>0.8441504634307364</v>
       </c>
       <c r="G16">
-        <v>0.8548007263755721</v>
+        <v>0.7440664344067471</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001608946160101432</v>
+        <v>0.001989964181362325</v>
       </c>
       <c r="J16">
-        <v>0.5677666942936241</v>
+        <v>0.4913134215361907</v>
       </c>
       <c r="K16">
-        <v>0.6122648833047037</v>
+        <v>0.5049066092126324</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2097601722029019</v>
       </c>
       <c r="M16">
-        <v>1.662552812193923</v>
+        <v>0.1765838090793181</v>
       </c>
       <c r="N16">
-        <v>0.3988123072681589</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.621251477897573</v>
       </c>
       <c r="P16">
-        <v>0.8554650152056347</v>
+        <v>0.4083640986231813</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7940033644745501</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731065855748426</v>
+        <v>1.593797266431295</v>
       </c>
       <c r="C17">
-        <v>0.1750371673297622</v>
+        <v>0.1961900620959511</v>
       </c>
       <c r="D17">
-        <v>0.07318218927614595</v>
+        <v>0.0808691459574149</v>
       </c>
       <c r="E17">
-        <v>0.06886572727402651</v>
+        <v>0.06170145111260794</v>
       </c>
       <c r="F17">
-        <v>0.9450419032927186</v>
+        <v>0.8311624397528732</v>
       </c>
       <c r="G17">
-        <v>0.8347801238450785</v>
+        <v>0.7132724322407853</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001634144587860931</v>
+        <v>0.001981564741074138</v>
       </c>
       <c r="J17">
-        <v>0.5607070272602925</v>
+        <v>0.5112739865410845</v>
       </c>
       <c r="K17">
-        <v>0.6042605730906701</v>
+        <v>0.5038485486040898</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2119679547900546</v>
       </c>
       <c r="M17">
-        <v>1.592402282750356</v>
+        <v>0.1727792885969137</v>
       </c>
       <c r="N17">
-        <v>0.3829534854304626</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.559383980145299</v>
       </c>
       <c r="P17">
-        <v>0.8705823623954672</v>
+        <v>0.3925178639951241</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8103106394123287</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.69016971422775</v>
+        <v>1.558583108250417</v>
       </c>
       <c r="C18">
-        <v>0.1709527125326957</v>
+        <v>0.1915809508011392</v>
       </c>
       <c r="D18">
-        <v>0.07211357205293467</v>
+        <v>0.07918351279120373</v>
       </c>
       <c r="E18">
-        <v>0.06782934083144454</v>
+        <v>0.06072202504196156</v>
       </c>
       <c r="F18">
-        <v>0.9331375477560471</v>
+        <v>0.824523807024903</v>
       </c>
       <c r="G18">
-        <v>0.8254946929558571</v>
+        <v>0.7001693530802271</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001443937664383554</v>
+        <v>0.001707629373758124</v>
       </c>
       <c r="J18">
-        <v>0.5577772076724017</v>
+        <v>0.5199573905795916</v>
       </c>
       <c r="K18">
-        <v>0.6013761466218668</v>
+        <v>0.504153239329419</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2135732035535334</v>
       </c>
       <c r="M18">
-        <v>1.55269876743003</v>
+        <v>0.1709969016943305</v>
       </c>
       <c r="N18">
-        <v>0.3737118716052095</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.523427389749884</v>
       </c>
       <c r="P18">
-        <v>0.8802417271660801</v>
+        <v>0.3832154478265011</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8201094242600711</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.674314373784711</v>
+        <v>1.544682505168623</v>
       </c>
       <c r="C19">
-        <v>0.1700189684974021</v>
+        <v>0.19050056450277</v>
       </c>
       <c r="D19">
-        <v>0.0718633493031291</v>
+        <v>0.07875312915527388</v>
       </c>
       <c r="E19">
-        <v>0.067385273521964</v>
+        <v>0.06031108297111842</v>
       </c>
       <c r="F19">
-        <v>0.9276244470767239</v>
+        <v>0.8207478385233031</v>
       </c>
       <c r="G19">
-        <v>0.8207419898347013</v>
+        <v>0.6947133233689158</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001583097206482975</v>
+        <v>0.001855105714966498</v>
       </c>
       <c r="J19">
-        <v>0.5559757974563979</v>
+        <v>0.521491540228979</v>
       </c>
       <c r="K19">
-        <v>0.5991335116856931</v>
+        <v>0.503068095879911</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2136801862850426</v>
       </c>
       <c r="M19">
-        <v>1.538822913284122</v>
+        <v>0.169942847206336</v>
       </c>
       <c r="N19">
-        <v>0.370718597697973</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.510673576301684</v>
       </c>
       <c r="P19">
-        <v>0.8828571336634461</v>
+        <v>0.3801889499712701</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8229907316365352</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.739327083957249</v>
+        <v>1.600914495649363</v>
       </c>
       <c r="C20">
-        <v>0.1756418311283028</v>
+        <v>0.1968463648186827</v>
       </c>
       <c r="D20">
-        <v>0.07334175218407779</v>
+        <v>0.08114670630300935</v>
       </c>
       <c r="E20">
-        <v>0.06909010174874197</v>
+        <v>0.06191587395552034</v>
       </c>
       <c r="F20">
-        <v>0.947769189076709</v>
+        <v>0.8327828451553785</v>
       </c>
       <c r="G20">
-        <v>0.8370646078668926</v>
+        <v>0.7164135745027664</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001605679649895109</v>
+        <v>0.001953991917702069</v>
       </c>
       <c r="J20">
-        <v>0.5615350233676537</v>
+        <v>0.5096064207512256</v>
       </c>
       <c r="K20">
-        <v>0.6052357386772371</v>
+        <v>0.5041266346381263</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2117930141813318</v>
       </c>
       <c r="M20">
-        <v>1.599907907092387</v>
+        <v>0.1732435417765927</v>
       </c>
       <c r="N20">
-        <v>0.3846238289915505</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.566109862019061</v>
       </c>
       <c r="P20">
-        <v>0.8690310536849601</v>
+        <v>0.3941942782723373</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8086276553266849</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.960656042105995</v>
+        <v>1.782747385929326</v>
       </c>
       <c r="C21">
-        <v>0.1942338130977248</v>
+        <v>0.2135128471667826</v>
       </c>
       <c r="D21">
-        <v>0.07817691691281681</v>
+        <v>0.09076062983217525</v>
       </c>
       <c r="E21">
-        <v>0.07499239912504052</v>
+        <v>0.06814703937116562</v>
       </c>
       <c r="F21">
-        <v>1.018770447068704</v>
+        <v>0.858533018665895</v>
       </c>
       <c r="G21">
-        <v>0.89526407055709</v>
+        <v>0.8375809202683939</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002061506428039372</v>
+        <v>0.002440522548653234</v>
       </c>
       <c r="J21">
-        <v>0.5819886859441823</v>
+        <v>0.4126905308669677</v>
       </c>
       <c r="K21">
-        <v>0.6280174720137666</v>
+        <v>0.5001686674152808</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2028437835763484</v>
       </c>
       <c r="M21">
-        <v>1.806531091691824</v>
+        <v>0.1819034981166325</v>
       </c>
       <c r="N21">
-        <v>0.4317610865092405</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.737107753399954</v>
       </c>
       <c r="P21">
-        <v>0.8245245602449529</v>
+        <v>0.4404985034058768</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.758719612817889</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.109546737528433</v>
+        <v>1.903759810957638</v>
       </c>
       <c r="C22">
-        <v>0.2057473757000992</v>
+        <v>0.223229860989008</v>
       </c>
       <c r="D22">
-        <v>0.08112878718051064</v>
+        <v>0.09712103043617049</v>
       </c>
       <c r="E22">
-        <v>0.07907585916383653</v>
+        <v>0.07253059207344137</v>
       </c>
       <c r="F22">
-        <v>1.069205817377579</v>
+        <v>0.8765204392678925</v>
       </c>
       <c r="G22">
-        <v>0.9374784958172597</v>
+        <v>0.929734799792115</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002538100838362034</v>
+        <v>0.002721666631994246</v>
       </c>
       <c r="J22">
-        <v>0.5975139040372568</v>
+        <v>0.3542663897216158</v>
       </c>
       <c r="K22">
-        <v>0.6458853645529246</v>
+        <v>0.4988234393363271</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1975367828586663</v>
       </c>
       <c r="M22">
-        <v>1.943157294926863</v>
+        <v>0.1884317238798161</v>
       </c>
       <c r="N22">
-        <v>0.4627970524624487</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.847848092151594</v>
       </c>
       <c r="P22">
-        <v>0.7975263974110121</v>
+        <v>0.4707963966539381</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7277469974859461</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.033584362352371</v>
+        <v>1.844335672123975</v>
       </c>
       <c r="C23">
-        <v>0.198800971079919</v>
+        <v>0.2179872366209707</v>
       </c>
       <c r="D23">
-        <v>0.07935611388104746</v>
+        <v>0.09314631080259517</v>
       </c>
       <c r="E23">
-        <v>0.07705652686487596</v>
+        <v>0.07019811684854815</v>
       </c>
       <c r="F23">
-        <v>1.044798267971458</v>
+        <v>0.8726539185007454</v>
       </c>
       <c r="G23">
-        <v>0.9176844259675221</v>
+        <v>0.8735792642045368</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001947103504750913</v>
+        <v>0.002190307657969015</v>
       </c>
       <c r="J23">
-        <v>0.5905984330090774</v>
+        <v>0.396137019800392</v>
       </c>
       <c r="K23">
-        <v>0.6385205416102551</v>
+        <v>0.5032194380621959</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.201616352584459</v>
       </c>
       <c r="M23">
-        <v>1.870951521729893</v>
+        <v>0.1864320078598745</v>
       </c>
       <c r="N23">
-        <v>0.4459647508739835</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.792714411838261</v>
       </c>
       <c r="P23">
-        <v>0.8129875687248642</v>
+        <v>0.4545944298604638</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7453501497266615</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.741132705298924</v>
+        <v>1.602877342977024</v>
       </c>
       <c r="C24">
-        <v>0.1741450365013719</v>
+        <v>0.1951275729225728</v>
       </c>
       <c r="D24">
-        <v>0.0729631186176789</v>
+        <v>0.08067954144148359</v>
       </c>
       <c r="E24">
-        <v>0.06924703705638535</v>
+        <v>0.06205695461603966</v>
       </c>
       <c r="F24">
-        <v>0.9506661049421865</v>
+        <v>0.8358070680027794</v>
       </c>
       <c r="G24">
-        <v>0.8405051882571257</v>
+        <v>0.7190218654888128</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001117060554336469</v>
+        <v>0.001364260586111499</v>
       </c>
       <c r="J24">
-        <v>0.5634138513974136</v>
+        <v>0.5123671143172004</v>
       </c>
       <c r="K24">
-        <v>0.6083023305980362</v>
+        <v>0.5070196440517805</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2129693991037342</v>
       </c>
       <c r="M24">
-        <v>1.597736784088198</v>
+        <v>0.1742129721892063</v>
       </c>
       <c r="N24">
-        <v>0.3835172780560896</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.564241203896671</v>
       </c>
       <c r="P24">
-        <v>0.8715716390315578</v>
+        <v>0.3930883353163637</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8105061344152151</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.427476754067811</v>
+        <v>1.322174400310757</v>
       </c>
       <c r="C25">
-        <v>0.1481562907006406</v>
+        <v>0.1618067974776665</v>
       </c>
       <c r="D25">
-        <v>0.06604591802457804</v>
+        <v>0.07092866335537451</v>
       </c>
       <c r="E25">
-        <v>0.06103295106153794</v>
+        <v>0.05493176492623775</v>
       </c>
       <c r="F25">
-        <v>0.8541133133453087</v>
+        <v>0.7613296062213095</v>
       </c>
       <c r="G25">
-        <v>0.7619244550060102</v>
+        <v>0.6539742830938309</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002075753884149378</v>
+        <v>0.001826914985690209</v>
       </c>
       <c r="J25">
-        <v>0.536722337669687</v>
+        <v>0.5023087061490656</v>
       </c>
       <c r="K25">
-        <v>0.5782974816001101</v>
+        <v>0.492191953490547</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2182335319761641</v>
       </c>
       <c r="M25">
-        <v>1.3056486725865</v>
+        <v>0.1557530897088917</v>
       </c>
       <c r="N25">
-        <v>0.3178747643379722</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.283723576890111</v>
       </c>
       <c r="P25">
-        <v>0.9384972060982122</v>
+        <v>0.3258974147375682</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8765108097547323</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
